--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject7.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject7.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.75134272579534911</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.87623908928610117</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -323,10 +323,10 @@
         <v>0</v>
       </c>
       <c r="BN1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.79407302236938859</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.64222101787196295</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.99735318663575923</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.63557556142662763</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.64762185385574944</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.77342060888897568</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>0.94192120231323018</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
-        <v>0</v>
+        <v>0.99357348912316124</v>
       </c>
       <c r="Z3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>0.62589228084916781</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.72157240175038706</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.8791738010364698</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.80606771662018162</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.58087842959065372</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.66254857152028168</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.94179802443541782</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.97436525659723583</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.9587440982390063</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.83745504698773043</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>0</v>
+        <v>0.57930060705661535</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.58629592309619483</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.98121800791636848</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.55681481942716826</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.75582403476910143</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.99212285186500482</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.75836749465634201</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0</v>
+        <v>0.86001831470573209</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0</v>
+        <v>0.84360954303571389</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.64608166852314497</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.90840668904710753</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.68490390150211411</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.80573208283983377</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>0</v>
+        <v>0.64943664719492644</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
       </c>
       <c r="AM9" s="0">
-        <v>0</v>
+        <v>0.82729084447440937</v>
       </c>
       <c r="AN9" s="0">
-        <v>0</v>
+        <v>0.89630820531485877</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.8929144663700127</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.78697761337250305</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.54402460139722186</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2212,25 +2212,25 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.92985592884137702</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.98322898721245822</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.79549755564760039</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.62496133668469867</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>0</v>
+        <v>0.80297779699169225</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="0">
-        <v>0</v>
+        <v>0.51540011301403044</v>
       </c>
       <c r="BG11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0</v>
+        <v>0.7441294937879781</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.8726456782468125</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.74201149556321777</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.99926830383355747</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.9876276010007552</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2595,18 +2595,18 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>0</v>
+        <v>0.67975666924308809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.57003119027331828</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.97405841159620143</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.9797902836416964</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.69479519002792478</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.87680217088337598</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.76263558616952376</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.50921631288854108</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0</v>
+        <v>0.53765314411594423</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -3042,25 +3042,25 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.87688635897424816</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.68876841977511782</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.99653225685572655</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>1</v>
+        <v>0.9792885162873769</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.74794524313241895</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0</v>
+        <v>0.54240983740171045</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>0</v>
+        <v>0.68574619722805785</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.75915408013265306</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.88379211628472509</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.84325229091148568</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.69909048822849607</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.56326708089103339</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.81774206712163489</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="0">
         <v>0</v>
@@ -3753,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0</v>
+        <v>0.69377473123242428</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0</v>
+        <v>0.95886986604845315</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.75854924851980288</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.86254057350027269</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.91009086533277794</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.69983319800248611</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.98501287408416782</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.92189845089511091</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.67942383069161927</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.69308002115992862</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0</v>
+        <v>0.55852842928733781</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.69994940446090825</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.77561982967199761</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="0">
-        <v>0</v>
+        <v>0.69639255133073363</v>
       </c>
       <c r="AO21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.53880214018405215</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.88113171465665929</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.96567733601460581</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.83952315329046667</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="0">
-        <v>0</v>
+        <v>0.99869313738396381</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="0">
-        <v>0</v>
+        <v>0.98475829979995277</v>
       </c>
       <c r="AV22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.89167941764888703</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.71784710657428807</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>0</v>
+        <v>0.72592021218575353</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.70173221275131481</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.67060031923409391</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.86565485703627698</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.50643817814644154</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>0.54944581091703082</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>0</v>
+        <v>0.67285127217849949</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5141,19 +5141,19 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.88937914009878427</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
-        <v>0</v>
+        <v>0.88128876464398065</v>
       </c>
       <c r="AC25" s="0">
         <v>0</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.97198803564070158</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.72050281202909283</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>0</v>
+        <v>0.59788785971010505</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,16 +5565,16 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.56713231750492799</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.72281752459133386</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.65690987768953346</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5762,22 +5762,22 @@
         <v>0</v>
       </c>
       <c r="Y28" s="0">
-        <v>0</v>
+        <v>0.60149599426928679</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.91976760356794629</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.86882371493857669</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.90437379339388368</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.68633263065650207</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.92300515982128228</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.72341351007997434</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.60443473785774016</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.83097306564434748</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.65143046337965393</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.58967471293800222</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.76371742254687547</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.98446965350020577</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>0</v>
+        <v>0.66657002650343955</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6386,25 +6386,25 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.5713839654296724</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.58424441801274818</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.73332531002204671</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.89966929975198739</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.69994771882181162</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.64504885493735076</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.86033354070653489</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.59624875376545605</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="0">
-        <v>0</v>
+        <v>0.57717013361779057</v>
       </c>
       <c r="BA32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0</v>
+        <v>0.50490535751798094</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>0</v>
+        <v>0.60452250099679572</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.99634481819742682</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.89886825263382941</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.83998381997735849</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.62742071071980465</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.65838082860481317</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.73789957294357178</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.80672168609377548</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0</v>
+        <v>0.77627887649551552</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.65944685574878037</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.99729873600678642</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.59628118708886624</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="BM36" s="0">
-        <v>0</v>
+        <v>0.88410914707087374</v>
       </c>
       <c r="BN36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
+        <v>0.89890338698725025</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.99801120204283045</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.66176896083747483</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.62530325846445833</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.85478439409139728</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.85951365426205273</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.99327225231563554</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="0">
-        <v>0</v>
+        <v>0.8786365584303959</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.52184335723768038</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.75537246116422074</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.73174742931777037</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>0.55733947436975995</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8216,19 +8216,19 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>0</v>
+        <v>0.57254960287190015</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.66487701646191022</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.87798348050495112</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.62721185585875849</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.94844205640511758</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="0">
-        <v>1</v>
+        <v>0.61164022097129589</v>
       </c>
       <c r="BB41" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0</v>
+        <v>0.51241795833049908</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.64761516776219219</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.7284242875808038</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0</v>
+        <v>0.87563477761128583</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0</v>
+        <v>0.67654421708773138</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.97821528185627038</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.9559524056829235</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.66721344179759479</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.5578345354163059</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.91594545377228664</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.69164320135014268</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.75871820096743636</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="0">
-        <v>0</v>
+        <v>0.70191908917155377</v>
       </c>
       <c r="BL45" s="0">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="0">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.8481328092336442</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.85034771945454402</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.82406177843077622</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9569,10 +9569,10 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>0</v>
+        <v>0.50470116619829541</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>0</v>
+        <v>0.54958160376524323</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>0</v>
+        <v>0.64447697039734519</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>0</v>
+        <v>0.84460145297149736</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0</v>
+        <v>0.88305476532015259</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.52938556513750568</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.67565901363601855</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.91457687993083625</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>0</v>
+        <v>0.72222285673467934</v>
       </c>
       <c r="AZ47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0</v>
+        <v>0.79240177022346514</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.73791250417196541</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.59224553833840421</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>0</v>
+        <v>0.84553742258677622</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0</v>
+        <v>0.53807390670530419</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.94694067614448696</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.90361694948863613</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.69234636184269993</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.62656712901059042</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.92091217096662104</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.66633745855946946</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.96898682649592671</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.83546797196446621</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10494,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0</v>
+        <v>0.67884430209029412</v>
       </c>
       <c r="X51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10566,22 +10566,22 @@
         <v>0</v>
       </c>
       <c r="AU51" s="0">
-        <v>0</v>
+        <v>0.80493850536680567</v>
       </c>
       <c r="AV51" s="0">
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.99168156061351986</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.73468572780618435</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.56430777754681261</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10626,10 +10626,10 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.51804225596771136</v>
       </c>
     </row>
     <row r="52">
@@ -10652,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>0</v>
+        <v>0.62561172551974153</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
       </c>
       <c r="AF52" s="0">
-        <v>0</v>
+        <v>0.53423640342300527</v>
       </c>
       <c r="AG52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.92161996493949483</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.69868333216052392</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="BD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="0">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AO53" s="0">
-        <v>1</v>
+        <v>0.70376516325422223</v>
       </c>
       <c r="AP53" s="0">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.56919838974758363</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0</v>
+        <v>0.78703949900303105</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>0.98241799885874093</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.85670004713030568</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.98178407342304219</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.97069533367576066</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.62816760389009618</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>0</v>
+        <v>0.79063186229626536</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11611,25 +11611,25 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="0">
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.94687074890705536</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.99416677951953925</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.58260283092661025</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.57665640191821832</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11820,16 +11820,16 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>0</v>
+        <v>0.63202435301873106</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.5543956038042579</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.62856673493998438</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.56394745416997527</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0</v>
+        <v>0.58511946219542033</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11900,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="0">
-        <v>0</v>
+        <v>0.52817448967785596</v>
       </c>
       <c r="L58" s="0">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0</v>
+        <v>0.99223254599091892</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.88084976103840518</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.71346669254008366</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0</v>
+        <v>0.6428778864699749</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.78284045065203334</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.72333104939506798</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.93866022910102687</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12420,10 +12420,10 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0</v>
+        <v>0.85344257222736331</v>
       </c>
       <c r="AV60" s="0">
-        <v>0</v>
+        <v>0.76291529026006</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.69547723628355063</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.78885891082933868</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.94261196929069491</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.95519411838683088</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.51977760094067749</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.64831080396051743</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0</v>
+        <v>0.96974061715647308</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.87710126962281221</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.59480004841367018</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.55504694480058914</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="BO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP62" s="0">
         <v>0</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0</v>
+        <v>0.89119971461196656</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="0">
-        <v>0</v>
+        <v>0.58607643882991134</v>
       </c>
       <c r="AT63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.75213648619413898</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.95351497333110502</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.8942619616115941</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.55859989273324639</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.85977990465878706</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="0">
-        <v>0</v>
+        <v>0.91964534645116047</v>
       </c>
       <c r="AK65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13498,16 +13498,16 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.8719378010891381</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.92072157908165431</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0</v>
+        <v>0.66840896000505345</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.7211289607558713</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.65909799618905818</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.74424428971452294</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.99159377182314534</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.6042310182593178</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK67" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.5688698307894956</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.68314318016745912</v>
       </c>
     </row>
     <row r="68">
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>0</v>
+        <v>0.78041092495049702</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="0">
         <v>0</v>
@@ -14077,10 +14077,10 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.51109532445996209</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.50135027206924998</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.66604996221286283</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject7.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject7.xlsx
@@ -69,7 +69,7 @@
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="12.7109375" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.64222101787196295</v>
+        <v>0.75134272579534911</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0.63557556142662763</v>
+        <v>0.95351497333110502</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.64762185385574944</v>
+        <v>0.87623908928610117</v>
       </c>
       <c r="B3" s="0">
-        <v>0.77342060888897568</v>
+        <v>0.99735318663575923</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.62589228084916781</v>
+        <v>0.65690987768953346</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.8791738010364698</v>
       </c>
       <c r="F4" s="0">
-        <v>0.80606771662018162</v>
+        <v>0.97436525659723583</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.58087842959065372</v>
+        <v>0.8791738010364698</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.66254857152028168</v>
+        <v>0.9587440982390063</v>
       </c>
       <c r="G5" s="0">
         <v>0.94179802443541782</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>0.57930060705661535</v>
+        <v>0.79063186229626536</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.58629592309619483</v>
+        <v>0.94179802443541782</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.98121800791636848</v>
+        <v>0.99212285186500482</v>
       </c>
       <c r="I7" s="0">
-        <v>0.55681481942716826</v>
+        <v>0.64608166852314497</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.75582403476910143</v>
+        <v>0.83745504698773043</v>
       </c>
       <c r="G8" s="0">
         <v>0.99212285186500482</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.75836749465634201</v>
+        <v>0.90840668904710753</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.86001831470573209</v>
+        <v>0.87563477761128583</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.68490390150211411</v>
+        <v>0.8929144663700127</v>
       </c>
       <c r="K9" s="0">
-        <v>0.80573208283983377</v>
+        <v>0.92985592884137702</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.64943664719492644</v>
+        <v>0.89890338698725025</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
       </c>
       <c r="AM9" s="0">
-        <v>0.82729084447440937</v>
+        <v>0.8786365584303959</v>
       </c>
       <c r="AN9" s="0">
         <v>0.89630820531485877</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.78697761337250305</v>
+        <v>0.98322898721245822</v>
       </c>
       <c r="L10" s="0">
-        <v>0.54402460139722186</v>
+        <v>0.8726456782468125</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.79549755564760039</v>
       </c>
       <c r="M11" s="0">
-        <v>0.62496133668469867</v>
+        <v>0.97405841159620143</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="0">
-        <v>0.51540011301403044</v>
+        <v>0.52817448967785596</v>
       </c>
       <c r="BG11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0.7441294937879781</v>
+        <v>0.89119971461196656</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0.8726456782468125</v>
       </c>
       <c r="K12" s="0">
-        <v>0.74201149556321777</v>
+        <v>0.79549755564760039</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>0.67975666924308809</v>
+        <v>0.78041092495049702</v>
       </c>
     </row>
     <row r="13">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0.57003119027331828</v>
+        <v>0.94192120231323018</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0.97405841159620143</v>
       </c>
       <c r="L13" s="0">
-        <v>0.9797902836416964</v>
+        <v>0.99926830383355747</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.69479519002792478</v>
+        <v>0.76263558616952376</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.87680217088337598</v>
+        <v>0.9876276010007552</v>
       </c>
       <c r="M14" s="0">
         <v>0.76263558616952376</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.50921631288854108</v>
+        <v>0.87688635897424816</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0.53765314411594423</v>
+        <v>0.99223254599091892</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.68876841977511782</v>
+        <v>0.74794524313241895</v>
       </c>
       <c r="Q15" s="0">
         <v>0.99653225685572655</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>0.9792885162873769</v>
+        <v>0.98241799885874093</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.54240983740171045</v>
+        <v>0.67285127217849949</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.75915408013265306</v>
+        <v>0.99653225685572655</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.69909048822849607</v>
+        <v>0.88379211628472509</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.56326708089103339</v>
+        <v>0.86254057350027269</v>
       </c>
       <c r="T18" s="0">
-        <v>0.81774206712163489</v>
+        <v>0.92189845089511091</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.75854924851980288</v>
+        <v>0.84325229091148568</v>
       </c>
       <c r="R19" s="0">
         <v>0.86254057350027269</v>
@@ -3896,7 +3896,7 @@
         <v>0.91009086533277794</v>
       </c>
       <c r="U19" s="0">
-        <v>0.69983319800248611</v>
+        <v>0.69994940446090825</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.92189845089511091</v>
       </c>
       <c r="S20" s="0">
-        <v>0.67942383069161927</v>
+        <v>0.91009086533277794</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0.55852842928733781</v>
+        <v>0.64447697039734519</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.77561982967199761</v>
+        <v>0.88113171465665929</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.53880214018405215</v>
+        <v>0.69308002115992862</v>
       </c>
       <c r="U22" s="0">
         <v>0.88113171465665929</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.89167941764888703</v>
+        <v>0.96567733601460581</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.70173221275131481</v>
+        <v>0.83952315329046667</v>
       </c>
       <c r="W24" s="0">
-        <v>0.67060031923409391</v>
+        <v>0.71784710657428807</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.86565485703627698</v>
+        <v>0.88937914009878427</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.50643817814644154</v>
+        <v>0.97198803564070158</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="0">
-        <v>0.54944581091703082</v>
+        <v>0.99357348912316124</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.72050281202909283</v>
+        <v>0.91976760356794629</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.56713231750492799</v>
+        <v>0.86882371493857669</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.72281752459133386</v>
+        <v>0.92300515982128228</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="0">
-        <v>0.60149599426928679</v>
+        <v>0.88128876464398065</v>
       </c>
       <c r="Z28" s="0">
         <v>0.91976760356794629</v>
@@ -5977,7 +5977,7 @@
         <v>0.92300515982128228</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.72341351007997434</v>
+        <v>0.90437379339388368</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.65143046337965393</v>
+        <v>0.68633263065650207</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.58967471293800222</v>
+        <v>0.60443473785774016</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.5713839654296724</v>
+        <v>0.83097306564434748</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.58424441801274818</v>
+        <v>0.76371742254687547</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0.73332531002204671</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.89966929975198739</v>
+        <v>0.99634481819742682</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.69994771882181162</v>
+        <v>0.98446965350020577</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.64504885493735076</v>
+        <v>0.73332531002204671</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.86033354070653489</v>
+        <v>0.89886825263382941</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.59624875376545605</v>
+        <v>0.83998381997735849</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0.50490535751798094</v>
+        <v>0.80297779699169225</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>0.60452250099679572</v>
+        <v>0.99869313738396381</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.62742071071980465</v>
+        <v>0.73789957294357178</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.65838082860481317</v>
+        <v>0.65944685574878037</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.80672168609377548</v>
+        <v>0.99801120204283045</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0.77627887649551552</v>
+        <v>0.88305476532015259</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.99729873600678642</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.59628118708886624</v>
+        <v>0.85478439409139728</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="BM36" s="0">
-        <v>0.88410914707087374</v>
+        <v>0.91964534645116047</v>
       </c>
       <c r="BN36" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0.99801120204283045</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.66176896083747483</v>
+        <v>0.99729873600678642</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.52184335723768038</v>
+        <v>0.62530325846445833</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.75537246116422074</v>
+        <v>0.85951365426205273</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.73174742931777037</v>
+        <v>0.87798348050495112</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0.55733947436975995</v>
+        <v>0.89630820531485877</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>0.57254960287190015</v>
+        <v>0.69639255133073363</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.66487701646191022</v>
+        <v>0.99327225231563554</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.62721185585875849</v>
+        <v>0.64761516776219219</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.94844205640511758</v>
+        <v>0.97821528185627038</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="0">
-        <v>0.61164022097129589</v>
+        <v>0.70376516325422223</v>
       </c>
       <c r="BB41" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0.51241795833049908</v>
+        <v>0.69377473123242428</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.7284242875808038</v>
+        <v>0.9559524056829235</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0.67654421708773138</v>
+        <v>0.95886986604845315</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.66721344179759479</v>
+        <v>0.91594545377228664</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.5578345354163059</v>
+        <v>0.8481328092336442</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.69164320135014268</v>
+        <v>0.85034771945454402</v>
       </c>
       <c r="AU45" s="0">
         <v>0.75871820096743636</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>0.50470116619829541</v>
+        <v>0.6428778864699749</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>0.54958160376524323</v>
+        <v>0.68574619722805785</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>0.84460145297149736</v>
+        <v>0.98475829979995277</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.52938556513750568</v>
+        <v>0.75871820096743636</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.67565901363601855</v>
+        <v>0.82406177843077622</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,13 +9748,13 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.91457687993083625</v>
+        <v>0.94694067614448696</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>0.72222285673467934</v>
+        <v>0.80493850536680567</v>
       </c>
       <c r="AZ47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0.79240177022346514</v>
+        <v>0.85344257222736331</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0.73791250417196541</v>
+        <v>0.98501287408416782</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.59224553833840421</v>
+        <v>0.92091217096662104</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.53807390670530419</v>
+        <v>0.59788785971010505</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0.90361694948863613</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.69234636184269993</v>
+        <v>0.99168156061351986</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0.62656712901059042</v>
+        <v>0.72157240175038706</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0.92091217096662104</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.66633745855946946</v>
+        <v>0.90361694948863613</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.96898682649592671</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.83546797196446621</v>
+        <v>0.92161996493949483</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0.67884430209029412</v>
+        <v>0.72592021218575353</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0.99168156061351986</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.73468572780618435</v>
+        <v>0.96898682649592671</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.56430777754681261</v>
+        <v>0.69868333216052392</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10721,13 +10721,13 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>0.62561172551974153</v>
+        <v>0.66657002650343955</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
       </c>
       <c r="AF52" s="0">
-        <v>0.53423640342300527</v>
+        <v>0.57717013361779057</v>
       </c>
       <c r="AG52" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.56919838974758363</v>
+        <v>0.98178407342304219</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.85670004713030568</v>
+        <v>0.94687074890705536</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.97069533367576066</v>
+        <v>0.99416677951953925</v>
       </c>
       <c r="BE55" s="0">
         <v>0.62816760389009618</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.58260283092661025</v>
+        <v>0.62856673493998438</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.57665640191821832</v>
+        <v>0.88084976103840518</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11820,13 +11820,13 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>0.63202435301873106</v>
+        <v>0.78703949900303105</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.5543956038042579</v>
+        <v>0.62816760389009618</v>
       </c>
       <c r="BD57" s="0">
         <v>0.62856673493998438</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.56394745416997527</v>
+        <v>0.78284045065203334</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0.58511946219542033</v>
+        <v>0.84360954303571389</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.72333104939506798</v>
+        <v>0.78885891082933868</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.93866022910102687</v>
+        <v>0.95519411838683088</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0.85344257222736331</v>
       </c>
       <c r="AV60" s="0">
-        <v>0.76291529026006</v>
+        <v>0.84553742258677622</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.69547723628355063</v>
+        <v>0.71346669254008366</v>
       </c>
       <c r="BG60" s="0">
         <v>0.78885891082933868</v>
@@ -12665,13 +12665,13 @@
         <v>0.95519411838683088</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.51977760094067749</v>
+        <v>0.94261196929069491</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.64831080396051743</v>
+        <v>0.87710126962281221</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.59480004841367018</v>
+        <v>0.75213648619413898</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.55504694480058914</v>
+        <v>0.8942619616115941</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="0">
-        <v>0.58607643882991134</v>
+        <v>0.70191908917155377</v>
       </c>
       <c r="AT63" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.55859989273324639</v>
+        <v>0.8719378010891381</v>
       </c>
       <c r="BN64" s="0">
         <v>0.85977990465878706</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0.66840896000505345</v>
+        <v>0.96974061715647308</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.7211289607558713</v>
+        <v>0.85977990465878706</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.65909799618905818</v>
+        <v>0.92072157908165431</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.6042310182593178</v>
+        <v>0.79407302236938859</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.5688698307894956</v>
+        <v>0.74424428971452294</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0.51109532445996209</v>
+        <v>0.51804225596771136</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.50135027206924998</v>
+        <v>0.99159377182314534</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.66604996221286283</v>
+        <v>0.68314318016745912</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
